--- a/Bern_Randgruppen.xlsx
+++ b/Bern_Randgruppen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="1092">
   <si>
     <t>date</t>
   </si>
@@ -22,6 +22,12 @@
     <t>title</t>
   </si>
   <si>
+    <t>secondarycategory</t>
+  </si>
+  <si>
+    <t>subcategories</t>
+  </si>
+  <si>
     <t>archive</t>
   </si>
   <si>
@@ -1712,6 +1718,681 @@
   </si>
   <si>
     <t>Erneüerung und Verschärfung der Verordnung wegen Ertheilung der Pässe.</t>
+  </si>
+  <si>
+    <t>Fahrende Leute</t>
+  </si>
+  <si>
+    <t>Zigeuner</t>
+  </si>
+  <si>
+    <t>Juden</t>
+  </si>
+  <si>
+    <t>Ausweisung; Differenzierung; Fremde; Einheimische</t>
+  </si>
+  <si>
+    <t>Festnahme; Aufenthalt; Verbot; Ausweisung; Diebstahl</t>
+  </si>
+  <si>
+    <t>Täufer; Festnahme</t>
+  </si>
+  <si>
+    <t>Landstreicher</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Festnahme; Grenzkontrolle; Landesverweisung; Paßkontrolle</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Landesverweisung; Streifen; Überprüfung Fremder; Bettelverbot; Aufenthalt; Verbot; Bedingungen; Einschränkung; Differenzierung; Fremde; Einheimische; Unterstützung; Festnahme; Hausierer; Begleitpersonen; Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Grenzkontrolle; Festnahme; Aufenthalt; Verbot; Bedingungen; Einschränkung</t>
+  </si>
+  <si>
+    <t>Paßkontrolle; Einreiseverbot; Festnahme; Streifen; Aufenthalt; Verbot; Bedingungen; Einschränkung; Krämer; Aussätzige</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Landesverweisung; Festnahme</t>
+  </si>
+  <si>
+    <t>Festnahme</t>
+  </si>
+  <si>
+    <t>Festnahme; Paßkontrolle; Einreiseverbot; Aufenthalt; Verbot; Landesverweisung; Grenzkontrolle; Differenzierung; Fremde; Einheimische</t>
+  </si>
+  <si>
+    <t>Festnahme; Einreiseverbot; Landesverweisung; Pässe; Paßkontrolle; Streifen</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Krämer; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Prostituierte</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Festnahme; Landesverweisung; Spielleute; Gaukler</t>
+  </si>
+  <si>
+    <t>Streifen; Festnahme; Differenzierung; Fremde; Einheimische; Landesverweisung; Aufenthalt; Verbot; Aussätzige; Überprüfung</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Grenzkontrolle; Pässe; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Differenzierung; Fremde; Einheimische; Landesverweisung; Festnahme</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Festnahme; Grenzkontrolle; Krämer; Landesverweisung; Aussätzige; Prostituierte; Überprüfung</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Differenzierung; Fremde; Einheimische; Landesverweisung; Krämer; Kesselflicker; Fristsetzung</t>
+  </si>
+  <si>
+    <t>Hausierer; Krämer; Landesverweisung; Differenzierung; Fremde; Einheimische</t>
+  </si>
+  <si>
+    <t>Bettler; Fahndung</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Durchzug; Festnahme</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Festnahme; Landesverweisung; Durchzug</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Krämer; Hausierer; Grenzkontrolle; Festnahme; Landesverweisung; Überprüfung Fremder; Einreiseverbot; Brandmarkung; Schiffe; Kontrolle; Korbflechter</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Einreiseverbot; Festnahme; Landesverweisung; Krämer; Aussätzige; Korbflechter; Streifen; Überprüfung Fremder; Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Streifen; Grenzkontrolle; Festnahme; Einreiseverbot</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Verbot; Bettelverbot; Differenzierung; Fremde; Einheimische; Einreiseverbot; Festnahme; Grenzkontrolle; Kennzeichnung; Landesverweisung; Überprüfung Fremder</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Festnahme; Aufenthalt; Verbot; Grenzkontrolle; Landesverweisung; Überprüfung</t>
+  </si>
+  <si>
+    <t>Festnahme,,1.3 gilt nur für die Welschen Gebiete,,,,</t>
+  </si>
+  <si>
+    <t>Krämer; Hausierer; Landesverweisung; Festnahme; Aufenthalt; Verbot</t>
+  </si>
+  <si>
+    <t>Streifen; Überprüfung Fremder; Landesverweisung; Festnahme; Aufenthalt; Verbot</t>
+  </si>
+  <si>
+    <t>Streifen; Festnahme,Marter</t>
+  </si>
+  <si>
+    <t>Streifen</t>
+  </si>
+  <si>
+    <t>Hausierer; Krämer; Differenzierung; Fremde; Einheimische</t>
+  </si>
+  <si>
+    <t>Landesverweisung</t>
+  </si>
+  <si>
+    <t>Aufsicht; Differenzierung; Fremde; Einheimische</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Streifen</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Landesverweisung; Einreiseverbot</t>
+  </si>
+  <si>
+    <t>Krämer</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Verbot; Einreiseverbot; Festnahme; Grenzkontrolle; Landesverweisung; Streifen</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Streifen; Landesverweisung; Grenzkontrolle; Festnahme; Differenzierung; Fremde; Einheimische; Bettelverbot; Aufsicht</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Krämer; Hausierer; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Grenzkontrolle; Differenzierung; Fremde; Einheimische; Gesellen; Profosen</t>
+  </si>
+  <si>
+    <t>Streifen; Landesverweisung; Festnahme; Differenzierung; Fremde; Einheimische; Durchzug; Überprüfung Fremder; Einreiseverbot</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Pässe; Paßkontrolle; Streifen</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Landesverweisung; Profosen</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Gartknechte; Profosen</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Grenzkontrolle; Festnahme; Einreiseverbot</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Einreiseverbot</t>
+  </si>
+  <si>
+    <t>Festnahme; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Durchzug; Paßkontrolle; Pässe</t>
+  </si>
+  <si>
+    <t>Streifen; Krämer; Festnahme; Landesverweisung; Differenzierung; Fremde; Einheimische; Arbeitseinsatz; Arbeitszwang; Grenzkontrolle; Religionszugehörigkeit</t>
+  </si>
+  <si>
+    <t>Streifen; Landesverweisung; Krämer,,,StAB A I 484, fol. 169r-170r, Verordnung 29.05.1638: Anordnung zur erneuten Verkündigung.,,,</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Festnahme; Einreiseverbot; Differenzierung; Fremde; Einheimische; Bettelverbot; Landesverweisung; Überprüfung Fremder; Arbeitszwang</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Festnahme; Unterhaltungskünstler; Spielleute; Musiker</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Festnahme; Landesverweisung; Krämer; Grenzkontrolle; Streifen; Überprüfung Fremder</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Hausierer; Krämer; Einreiseverbot; Differenzierung; Fremde; Einheimische; Festnahme</t>
+  </si>
+  <si>
+    <t>Streifen; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Streifen; Landesverweisung; Differenzierung; Fremde; Einheimische</t>
+  </si>
+  <si>
+    <t>Landesverweisung;,,,1.3 Fahrende Leute gilt für alle Gebiete.,,,)</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Aufsicht</t>
+  </si>
+  <si>
+    <t>Streifen; Landesverweisung; Festnahme; Differenzierung; Fremde; Einheimische; Arbeitszwang; Arbeitseinsatz; Aufenthalt; Verbot</t>
+  </si>
+  <si>
+    <t>Arbeitseinsatz; Aufenthalt; Verbot; Bedingungen; Einschränkung; Aufsicht; Bettelverbot; Differenzierung; Fremde; Einheimische; Einreiseverbot; Festnahme; Grenzkontrolle; Landesverweisung; Profosen; Gesellen; Durchzug</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Arbeitseinsatz; Festnahme; Landesverweisung; Streifen; Aufenthalt; Verbot; Bedingungen; Einschränkung; Bettelverbot; Einreiseverbot</t>
+  </si>
+  <si>
+    <t>Arbeitseinsatz; Aufenthalt; Verbot; Bedingungen; Einschränkung; Differenzierung; Fremde; Einheimische; Einreiseverbot; Festnahme; Landesverweisung; Streifen; Überprüfung Fremder; Durchzug; Pässe</t>
+  </si>
+  <si>
+    <t>Überprüfung Fremder; Pässe; Paßkontrolle</t>
+  </si>
+  <si>
+    <t>Hausierer; Krämer; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Festnahme; Überprüfung; Landesverweisung; Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Krämer; Hausierer; Überprüfung Fremder,,,1.3 Fahrende Leute u. 2.2 Sicherung Stadt/Land gilt nur für 9 Deutsche Ämter.,,,</t>
+  </si>
+  <si>
+    <t>Streifen; Überprüfung Fremder; Festnahme; Arbeitszwang</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Verbot; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Verbot; Bedingungen; Einschränkung; Durchzug; Jahrmarkt</t>
+  </si>
+  <si>
+    <t>Aufsicht; Bettelverbot; Differenzierung; Fremde; Einheimische; Festnahme; Arbeitszwang</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Bettelverbot; Aufsicht; Festnahme</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Einreiseverbot; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Streifen; Differenzierung; Fremde; Einheimische; Arbeitseinsatz; Festnahme</t>
+  </si>
+  <si>
+    <t>Krämer; Landesverweisung; Unterhaltungskünstler; Spielleute; Musiker; Narren; Reimsprecher; Tänzerinnen</t>
+  </si>
+  <si>
+    <t>Arbeitseinsatz; Festnahme; Landesverweisung; Überprüfung</t>
+  </si>
+  <si>
+    <t>Prostituierte; Festnahme; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Aufenthalt; Verbot</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Festnahme; Streifen; Überprüfung Fremder; Differenzierung; Fremde; Einheimische; Bettelverbot; Aufenthalt; Verbot; Bedingungen; Einschränkung</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Prostituierte</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Differenzierung; Fremde; Einheimische; Grenzkontrolle; Streifen</t>
+  </si>
+  <si>
+    <t>Streifen; Landesverweisung; Grenzkontrolle; Einreiseverbot; Differenzierung; Fremde; Einheimische</t>
+  </si>
+  <si>
+    <t>Streifen; Überprüfung Fremder; Landesverweisung; Festnahme; Grenzkontrolle; Differenzierung; Fremde; Einheimische</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Krämer; Beherbergungsverbot</t>
+  </si>
+  <si>
+    <t>Festnahme; Differenzierung; Fremde; Einheimische; Arbeitszwang; Bettelverbot</t>
+  </si>
+  <si>
+    <t>Pässe; Paßkontrolle</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Verbot; Einreiseverbot; Festnahme</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Arbeitszwang; Durchzug; Festnahme; Krämer; Landesverweisung; Pässe; Überprüfung Fremder</t>
+  </si>
+  <si>
+    <t>Krämer; Hausierer; Streifen</t>
+  </si>
+  <si>
+    <t>Streifen; Festnahme</t>
+  </si>
+  <si>
+    <t>Streifen; Flüchtlinge</t>
+  </si>
+  <si>
+    <t>Arbeitseinsatz; Arbeitszwang; Aufenthalt; Verbot; Bedingungen; Einschränkung; Bettelverbot; Differenzierung; Fremde; Einheimische; Festnahme; Landesverweisung; Streifen; Überprüfung Fremder; Flüchtlinge</t>
+  </si>
+  <si>
+    <t>Deserteure; Paßkontrolle; Pässe; Grenzkontrolle,,Geschätztes Datum: 1679.02.00,,,,)</t>
+  </si>
+  <si>
+    <t>Streifen; Überprüfung Fremder; Differenzierung; Fremde; Einheimische</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Differenzierung; Fremde; Einheimische; Festnahme; Streifen</t>
+  </si>
+  <si>
+    <t>Streifen; Differenzierung; Fremde; Einheimische; Beherbergung Fremder; Beherbergungsverbot; Einreiseverbot; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Profosen; Besoldung</t>
+  </si>
+  <si>
+    <t>Streifen; Bettelverbot; Krämer</t>
+  </si>
+  <si>
+    <t>Aufsicht; Einreiseverbot; Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Streifen; Überprüfung Fremder; Krämer; Hausierer; Differenzierung; Fremde; Einheimische; Bettelverbot; Landesverweisung; Arbeitseinsatz; Arbeitszwang</t>
+  </si>
+  <si>
+    <t>Streifen; Landesverweisung; Grenzkontrolle; Einreiseverbot; Festnahme</t>
+  </si>
+  <si>
+    <t>Festnahme; Streifen</t>
+  </si>
+  <si>
+    <t>Streifen,Datum stimmt</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Verbot; Bedingungen; Einschränkung; Festnahme; Landesverweisung; Krämer,Anm. Gehört zu pag848</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Festnahme; Einreiseverbot; Hausierer; Krämer; Landesverweisung; Streifen; Überprüfung Fremder; Arbeitszwang; Arbeitseinsatz; Aufsicht; Aufenthalt; Verbot</t>
+  </si>
+  <si>
+    <t>Streifen; Bettelverbot; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Streifen</t>
+  </si>
+  <si>
+    <t>Streifen; Bettelverbot</t>
+  </si>
+  <si>
+    <t>Beherbergung Fremder; Beherbergungsverbot; Streifen; Festnahme</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Streifen; Festnahme; Konfession</t>
+  </si>
+  <si>
+    <t>Festnahme; Drohung</t>
+  </si>
+  <si>
+    <t>Arbeitseinsatz; Bettelverbot; Differenzierung; Fremde; Einheimische; Einreiseverbot; Festnahme; Gesellen; Grenzkontrolle; Hausierer; Krämer; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Differenzierung; Fremde; Einheimische; Überprüfung Fremder; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Gesellen; Grenzkontrolle; Festnahme; Einreiseverbot; Pässe; Paßkontrolle</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Differenzierung; Fremde; Einheimische; Landesverweisung; Streifen; Profosen; Besoldung</t>
+  </si>
+  <si>
+    <t>Durchzug; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Streifen; Bettelverbot; Aufsicht; Profosen; Einreiseverbot; Grenzkontrolle; Landesverweisung; Festnahme; Krämer; Hausierer; Pässe; Paßkontrolle; Legitimation; Überprüfung Fremder; Gesellen; Durchzug</t>
+  </si>
+  <si>
+    <t>Pässe; Paßkontrolle; Gesellen</t>
+  </si>
+  <si>
+    <t>Streifen; Pässe; Paßkontrolle; Einreiseverbot; Gesellen</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Aufenthalt; Verbot; Bedingungen; Einschränkung</t>
+  </si>
+  <si>
+    <t>Streifen; Krämer; Hausierer; Landesverweisung; Pässe; Paßkontrolle; Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Bettelverbot; Differenzierung; Fremde; Einheimische; Profosen</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Verbot; Einreiseverbot; Festnahme; Grenzkontrolle; Kennzeichnung; Landesverweisung; Überprüfung</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Verbot; Bedingungen; Einschränkung</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Verbot; Einreiseverbot</t>
+  </si>
+  <si>
+    <t>Streifen; Differenzierung; Fremde; Einheimische; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Festnahme; Gesellen; Hausierer; Krämer; Pässe; Paßkontrolle; Grenzkontrolle; Beherbergung Fremder; Beherbergungsverbot; Differenzierung; Fremde; Einheimische; Durchzug</t>
+  </si>
+  <si>
+    <t>Kennzeichnung; Festnahme; Einreiseverbot; Brandmarkung; Arbeitseinsatz; Aufenthalt; Verbot; Landesverweisung; Überprüfung</t>
+  </si>
+  <si>
+    <t>Arbeitseinsatz; Arbeitszwang; Festnahme,Verwiesen auf Placcard vom 17.01.1707! Vielleicht Druck unter diesem Datum</t>
+  </si>
+  <si>
+    <t>Profosen; Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Streifen; Profosen</t>
+  </si>
+  <si>
+    <t>Arbeitseinsatz; Arbeitszwang; Aufenthalt; Verbot; Bedingungen; Einschränkung; Bettelverbot; Differenzierung; Fremde; Einheimische; Durchzug; Einreiseverbot; Festnahme; Gesellen; Grenzkontrolle; Landesverweisung; Pässe; Paßkontrolle; Streifen; Profosen</t>
+  </si>
+  <si>
+    <t>Profosen; Streifen</t>
+  </si>
+  <si>
+    <t>Streifen; Pässe; Paßkontrolle</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Profosen</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Landesverweisung; Differenzierung; Fremde; Einheimische; Bettelverbot; Hausierer; Krämer</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Differenzierung; Fremde; Einheimische; Grenzkontrolle; Landesverweisung; Profosen</t>
+  </si>
+  <si>
+    <t>Streifen; Bettelverbot; Differenzierung; Fremde; Einheimische; Einreiseverbot; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Festnahme; Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Arbeitseinsatz; Arbeitszwang; Differenzierung; Fremde; Einheimische; Einreiseverbot; Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Differenzierung; Fremde; Einheimische; Durchzug; Gesellen; Grenzkontrolle; Bettelverbot; Pässe; Paßkontrolle; Profosen</t>
+  </si>
+  <si>
+    <t>Streifen; Bettelverbot; Pässe; Paßkontrolle; Landesverweisung; Kennzeichnung; Durchzug; Einreiseverbot; Brandmarkung; Aufsicht; Aufenthalt; Verbot; Arbeitszwang; Arbeitseinsatz; Gesellen; Hausierer; Krämer</t>
+  </si>
+  <si>
+    <t>Arbeitseinsatz; Aufenthalt; Verbot; Bedingungen; Einschränkung; Einreiseverbot; Festnahme; Grenzkontrolle; Brandmarkung</t>
+  </si>
+  <si>
+    <t>Arbeitseinsatz; Arbeitszwang; Aufenthalt; Verbot; Aufsicht; Bettelverbot; Differenzierung; Fremde; Einheimische; Durchzug; Einreiseverbot; Festnahme; Grenzkontrolle; Landesverweisung; Legitimation; Streifen; Profosen</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Kennzeichnung; Krämer; Gesellen</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Festnahme</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Bettelverbot; Landesverweisung; Kosten</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Durchzug; Gesellen; Gartknechte</t>
+  </si>
+  <si>
+    <t>Streifen; Landesverweisung; Einreiseverbot; Festnahme</t>
+  </si>
+  <si>
+    <t>Streifen; Landesverweisung; Festnahme</t>
+  </si>
+  <si>
+    <t>Festnahme; Aufsicht; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Streifen; Überprüfung Fremder; Landesverweisung; Aufsicht; Festnahme</t>
+  </si>
+  <si>
+    <t>Aufsicht; Pässe; Streifen; Arbeitseinsatz; Arbeitszwang</t>
+  </si>
+  <si>
+    <t>Durchzug</t>
+  </si>
+  <si>
+    <t>Festnahme; Streifen; Landesverweisung; Arbeitseinsatz</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Aufsicht; Festnahme; Einreiseverbot</t>
+  </si>
+  <si>
+    <t>Festnahme; Pässe; Arbeitszwang; Aufsicht</t>
+  </si>
+  <si>
+    <t>Aufsicht; Pässe; Streifen</t>
+  </si>
+  <si>
+    <t>Festnahme; Kennzeichnung; Landesverweisung; Streifen; Einreiseverbot</t>
+  </si>
+  <si>
+    <t>Streifen; Festnahme; Arbeitseinsatz</t>
+  </si>
+  <si>
+    <t>Durchzug; Einreiseverbot; Grenzkontrolle; Gesellen; Pässe; Paßkontrolle</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Hausierer; Gesinde; Arbeitseinsatz; Arbeitszwang; Brandmarkung; Streifen; Grenzkontrolle; Bettelverbot; Pässe; Kennzeichnung; Legitimation; Überprüfung Fremder; Gesellen; Paßkontrolle; Festnahme; Einreiseverbot</t>
+  </si>
+  <si>
+    <t>Kennzeichnung; Grenzkontrolle; Landesverweisung; Festnahme</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Pässe; Streifen</t>
+  </si>
+  <si>
+    <t>Streifen; Landesverweisung; Arbeitseinsatz; Arbeitszwang</t>
+  </si>
+  <si>
+    <t>Pässe; Streifen; Arbeitszwang; Arbeitseinsatz</t>
+  </si>
+  <si>
+    <t>Streifen; Festnahme; Differenzierung; Fremde; Einheimische; Arbeitseinsatz; Arbeitszwang; Bettelverbot; Landesverweisung,Nächste Streifenanordnung 1730, ab hier nicht mehr aufgenommen, wenn nur Streifen.</t>
+  </si>
+  <si>
+    <t>Pässe; Landesverweisung; Differenzierung; Fremde; Einheimische; Arbeitseinsatz; Arbeitszwang; Streifen; Profosen</t>
+  </si>
+  <si>
+    <t>Streifen; Aufsicht</t>
+  </si>
+  <si>
+    <t>Festnahme; Überprüfung Fremder</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Landesverweisung; Gesellen</t>
+  </si>
+  <si>
+    <t>Streifen; Gaststättenbesuch; Verbot</t>
+  </si>
+  <si>
+    <t>Aufsicht; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Unterhaltungskünstler; Spielleute; Musiker; Narren; Reimsprecher; Tänzerinnen; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Aufsicht; Bettelverbot</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Durchzug; Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Grenzkontrolle; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Bettelfuhren; Pässe; Paßkontrolle; Streifen; Aufsicht</t>
+  </si>
+  <si>
+    <t>Pässe; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Pässe</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Bettelfuhren; Aufsicht; Einreiseverbot; Grenzkontrolle; Pässe</t>
+  </si>
+  <si>
+    <t>Streifen; Festnahme; Aufsicht; Pässe</t>
+  </si>
+  <si>
+    <t>Aufsicht,,,Anordnung für weitere Verkündigung: StAB A I 497, S. 183f. u. 197f., dort jedoch mit Bezug auf das Datum 18.12.1741, gemeint ist wohl jedoch diese Verordnung.,,,)</t>
+  </si>
+  <si>
+    <t>Aufsicht</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Verbot; Brandmarkung; Durchzug; Einreiseverbot; Festnahme; Gesellen; Gesinde; Grenzkontrolle; Hausierer; Kennzeichnung; Krämer; Landesverweisung; Legitimation; Pässe; Beherbergung Fremder; Beherbergungsverbot; Streifen</t>
+  </si>
+  <si>
+    <t>Kennzeichnung; Grenzkontrolle; Festnahme; Einreiseverbot; Brandmarkung; Aufenthalt; Verbot; Streifen; Kinder</t>
+  </si>
+  <si>
+    <t>Bettelverbot; Streifen; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Hausierer; Krämer; Landesverweisung; Beherbergung Fremder; Beherbergungsverbot,,,Anordnung für Aufsicht: StAB A I 507, S. 607, 08.02.1782.,,,</t>
+  </si>
+  <si>
+    <t>Sicherungsdienste; Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Sicherungsdienste; Grenzkontrolle; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Pässe; Paßkontrolle; Landesverweisung; Streifen,,,Erläuterung S. 378f.: 01.10.1764, Verordnung an Grandson u. St. Johannsen gleicher Betreff u. gleiches Datum, S. 380f.,,,</t>
+  </si>
+  <si>
+    <t>Festnahme; Grenzkontrolle; Pässe; Paßkontrolle; Landesverweisung; Überprüfung Fremder; Durchzug</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Einreiseverbot; Festnahme,,,Verschiedene Verordnungen an einzelne Ämter.,,,)</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Landesverweisung; Festnahme; Einreiseverbot; Streifen,,,Verschiedene Verordnungen an einzelne Ämter.,,,)</t>
+  </si>
+  <si>
+    <t>Streifen; Grenzkontrolle; Einreiseverbot</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Gesellen; Einreiseverbot; Durchzug; Pässe; Paßkontrolle; Nachbarabrede; Begünstigung; Nachbarorte; Ausland</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Festnahme; Grenzkontrolle; Landesverweisung</t>
+  </si>
+  <si>
+    <t>Arbeitsbedingungen</t>
+  </si>
+  <si>
+    <t>Einreiseverbot; Grenzkontrolle; Pässe; Paßkontrolle; Streifen; Überprüfung Fremder; Durchzug</t>
+  </si>
+  <si>
+    <t>Grenzkontrolle; Streifen; Überprüfung Fremder; Pässe; Paßkontrolle; Landesverweisung; Durchzug; Festnahme; Einreiseverbot; Gesellen</t>
+  </si>
+  <si>
+    <t>Hausierer; Juden</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Bedingungen; Einschränkung</t>
+  </si>
+  <si>
+    <t>Aufsicht; Streifen</t>
+  </si>
+  <si>
+    <t>Streifen; Pässe; Paßkontrolle; Landesverweisung; Grenzkontrolle; Einreiseverbot; Beherbergung Fremder; Beherbergungsverbot; Aufsicht</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Verbot; Bedingungen; Einschränkung; Landesverweisung; Paßkontrolle; Pässe; Gesellen</t>
+  </si>
+  <si>
+    <t>Pässe; Paßkontrolle; Grenzkontrolle; Gesellen; Landesverweisung; Legitimation; Differenzierung; Fremde; Einheimische,,,Anordnung für Einhaltung StAB A I 509, S. 619f.: 09.05.1789.,,,)</t>
+  </si>
+  <si>
+    <t>Landesverweisung; Nachbarabrede; Begünstigung; Nachbarorte; Ausland</t>
+  </si>
+  <si>
+    <t>Deserteure</t>
+  </si>
+  <si>
+    <t>Aufenthalt; Verbot; Bedingungen; Einschränkung; Bettelverbot; Differenzierung; Fremde; Einheimische; Einreiseverbot; Festnahme; Grenzkontrolle; Landesverweisung; Legitimation; Streifen; Überprüfung Fremder</t>
+  </si>
+  <si>
+    <t>Überprüfung Fremder; Paßkontrolle; Landesverweisung; Grenzkontrolle; Festnahme; Einreiseverbot; Differenzierung; Fremde; Einheimische; Bettelverbot; Beherbergung Fremder; Beherbergungsverbot; Aufsicht; Aufenthalt; Verbot; Bedingungen; Einschränkung</t>
+  </si>
+  <si>
+    <t>Überprüfung Fremder; Pässe; Paßkontrolle; Einreiseverbot; Landesverweisung; Legitimation</t>
+  </si>
+  <si>
+    <t>Pässe; Paßkontrolle; Einreiseverbot; Grenzkontrolle</t>
+  </si>
+  <si>
+    <t>Pässe; Paßkontrolle; Durchzug; Streifen; Beherbergung Fremder; Beherbergungsverbot; Grenzkontrolle; Überprüfung Fremder,,,Abänderung S. 438-440: 10.10.1796.,,,)</t>
+  </si>
+  <si>
+    <t>Beherbergung Fremder; Beherbergungsverbot; Durchzug; Pässe; Paßkontrolle; Streifen; Überprüfung Fremder</t>
+  </si>
+  <si>
+    <t>Pässe; Paßkontrolle; Landesverweisung; Grenzkontrolle; Überprüfung Fremder</t>
   </si>
   <si>
     <t>StAB, A I 479, fol. 183v-184v</t>
@@ -2966,13 +3647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D320"/>
+  <dimension ref="A1:F320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2982,4432 +3663,6352 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D5" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E6" t="s">
+        <v>575</v>
+      </c>
+      <c r="F6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E8" t="s">
+        <v>577</v>
+      </c>
+      <c r="F8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>275</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E9" t="s">
+        <v>578</v>
+      </c>
+      <c r="F9" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>276</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E10" t="s">
+        <v>578</v>
+      </c>
+      <c r="F10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>303</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F11" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D12" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E12" t="s">
+        <v>580</v>
+      </c>
+      <c r="F12" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>340</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D13" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E13" t="s">
+        <v>581</v>
+      </c>
+      <c r="F13" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>341</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D14" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E14" t="s">
+        <v>582</v>
+      </c>
+      <c r="F14" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>345</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D15" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E15" t="s">
+        <v>583</v>
+      </c>
+      <c r="F15" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>454</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D16" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E16" t="s">
+        <v>584</v>
+      </c>
+      <c r="F16" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>487</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D17" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E17" t="s">
+        <v>585</v>
+      </c>
+      <c r="F17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>509</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D18" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E18" t="s">
+        <v>586</v>
+      </c>
+      <c r="F18" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>566</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D19" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E19" t="s">
+        <v>587</v>
+      </c>
+      <c r="F19" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>567</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D20" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E20" t="s">
+        <v>587</v>
+      </c>
+      <c r="F20" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>588</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E21" t="s">
+        <v>588</v>
+      </c>
+      <c r="F21" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>611</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D22" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E22" t="s">
+        <v>589</v>
+      </c>
+      <c r="F22" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>638</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D23" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E23" t="s">
+        <v>590</v>
+      </c>
+      <c r="F23" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>639</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D24" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E24" t="s">
+        <v>590</v>
+      </c>
+      <c r="F24" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>645</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D25" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F25" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>691</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D26" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E26" t="s">
+        <v>592</v>
+      </c>
+      <c r="F26" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>694</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D27" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E27" t="s">
+        <v>593</v>
+      </c>
+      <c r="F27" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>701</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E28" t="s">
+        <v>594</v>
+      </c>
+      <c r="F28" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>704</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D29" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E29" t="s">
+        <v>595</v>
+      </c>
+      <c r="F29" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>725</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E30" t="s">
+        <v>593</v>
+      </c>
+      <c r="F30" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>782</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E31" t="s">
+        <v>596</v>
+      </c>
+      <c r="F31" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>863</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E32" t="s">
+        <v>597</v>
+      </c>
+      <c r="F32" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>864</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E33" t="s">
+        <v>598</v>
+      </c>
+      <c r="F33" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>908</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D34" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E34" t="s">
+        <v>599</v>
+      </c>
+      <c r="F34" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>926</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D35" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E35" t="s">
+        <v>600</v>
+      </c>
+      <c r="F35" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>944</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D36" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E36" t="s">
+        <v>601</v>
+      </c>
+      <c r="F36" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>946</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D37" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E37" t="s">
+        <v>602</v>
+      </c>
+      <c r="F37" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>960</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D38" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E38" t="s">
+        <v>603</v>
+      </c>
+      <c r="F38" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>981</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D39" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E39" t="s">
+        <v>604</v>
+      </c>
+      <c r="F39" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>1080</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D40" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E40" t="s">
+        <v>605</v>
+      </c>
+      <c r="F40" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>1081</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D41" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E41" t="s">
+        <v>606</v>
+      </c>
+      <c r="F41" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>1086</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D42" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E42" t="s">
+        <v>580</v>
+      </c>
+      <c r="F42" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>1091</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D43" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E43" t="s">
+        <v>607</v>
+      </c>
+      <c r="F43" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>1098</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D44" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E44" t="s">
+        <v>608</v>
+      </c>
+      <c r="F44" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>1101</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E45" t="s">
+        <v>609</v>
+      </c>
+      <c r="F45" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>1106</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D46" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E46" t="s">
+        <v>610</v>
+      </c>
+      <c r="F46" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>1123</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D47" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E47" t="s">
+        <v>611</v>
+      </c>
+      <c r="F47" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>1144</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D48" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E48" t="s">
+        <v>612</v>
+      </c>
+      <c r="F48" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>1214</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D49" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E49" t="s">
+        <v>613</v>
+      </c>
+      <c r="F49" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>1221</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D50" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E50" t="s">
+        <v>580</v>
+      </c>
+      <c r="F50" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>1232</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D51" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E51" t="s">
+        <v>580</v>
+      </c>
+      <c r="F51" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>1290</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D52" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E52" t="s">
+        <v>614</v>
+      </c>
+      <c r="F52" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>1312</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D53" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E53" t="s">
+        <v>615</v>
+      </c>
+      <c r="F53" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>1467</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D54" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E54" t="s">
+        <v>616</v>
+      </c>
+      <c r="F54" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>1474</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D55" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E55" t="s">
+        <v>605</v>
+      </c>
+      <c r="F55" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>1488</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D56" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E56" t="s">
+        <v>617</v>
+      </c>
+      <c r="F56" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>1489</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D57" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E57" t="s">
+        <v>617</v>
+      </c>
+      <c r="F57" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>1504</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D58" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E58" t="s">
+        <v>584</v>
+      </c>
+      <c r="F58" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>1508</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D59" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E59" t="s">
+        <v>618</v>
+      </c>
+      <c r="F59" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>1514</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D60" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E60" t="s">
+        <v>619</v>
+      </c>
+      <c r="F60" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>1530</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D61" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E61" t="s">
+        <v>607</v>
+      </c>
+      <c r="F61" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>1542</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D62" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E62" t="s">
+        <v>620</v>
+      </c>
+      <c r="F62" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>1564</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D63" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E63" t="s">
+        <v>621</v>
+      </c>
+      <c r="F63" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>1565</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D64" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E64" t="s">
+        <v>621</v>
+      </c>
+      <c r="F64" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>1582</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D65" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E65" t="s">
+        <v>622</v>
+      </c>
+      <c r="F65" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>1593</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D66" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E66" t="s">
+        <v>623</v>
+      </c>
+      <c r="F66" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>1668</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D67" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E67" t="s">
+        <v>624</v>
+      </c>
+      <c r="F67" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>1716</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D68" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E68" t="s">
+        <v>625</v>
+      </c>
+      <c r="F68" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>1721</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D69" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E69" t="s">
+        <v>626</v>
+      </c>
+      <c r="F69" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>1773</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D70" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E70" t="s">
+        <v>627</v>
+      </c>
+      <c r="F70" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>1821</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D71" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E71" t="s">
+        <v>628</v>
+      </c>
+      <c r="F71" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>1824</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D72" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E72" t="s">
+        <v>629</v>
+      </c>
+      <c r="F72" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>1841</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D73" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E73" t="s">
+        <v>630</v>
+      </c>
+      <c r="F73" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>1885</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D74" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E74" t="s">
+        <v>605</v>
+      </c>
+      <c r="F74" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>1930</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D75" t="s">
+        <v>568</v>
+      </c>
+      <c r="E75" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="F75" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>1966</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D76" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E76" t="s">
+        <v>607</v>
+      </c>
+      <c r="F76" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>1996</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D77" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E77" t="s">
+        <v>632</v>
+      </c>
+      <c r="F77" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>2042</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D78" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E78" t="s">
+        <v>633</v>
+      </c>
+      <c r="F78" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>2082</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D79" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E79" t="s">
+        <v>631</v>
+      </c>
+      <c r="F79" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>2089</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D80" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E80" t="s">
+        <v>634</v>
+      </c>
+      <c r="F80" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>2102</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D81" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E81" t="s">
+        <v>635</v>
+      </c>
+      <c r="F81" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>2110</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D82" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E82" t="s">
+        <v>609</v>
+      </c>
+      <c r="F82" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>2117</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D83" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E83" t="s">
+        <v>636</v>
+      </c>
+      <c r="F83" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>2181</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D84" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E84" t="s">
+        <v>637</v>
+      </c>
+      <c r="F84" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>2182</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D85" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E85" t="s">
+        <v>637</v>
+      </c>
+      <c r="F85" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>2194</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D86" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E86" t="s">
+        <v>607</v>
+      </c>
+      <c r="F86" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>2195</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D87" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E87" t="s">
+        <v>607</v>
+      </c>
+      <c r="F87" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>2209</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D88" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E88" t="s">
+        <v>638</v>
+      </c>
+      <c r="F88" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>2219</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D89" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E89" t="s">
+        <v>639</v>
+      </c>
+      <c r="F89" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>2257</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D90" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E90" t="s">
+        <v>640</v>
+      </c>
+      <c r="F90" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>2291</v>
       </c>
       <c r="B91" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D91" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E91" t="s">
+        <v>641</v>
+      </c>
+      <c r="F91" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>2292</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C92" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D92" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E92" t="s">
+        <v>641</v>
+      </c>
+      <c r="F92" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>2325</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D93" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E93" t="s">
+        <v>642</v>
+      </c>
+      <c r="F93" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>2352</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D94" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E94" t="s">
+        <v>605</v>
+      </c>
+      <c r="F94" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>2387</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D95" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E95" t="s">
+        <v>643</v>
+      </c>
+      <c r="F95" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>2390</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C96" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D96" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="E96" t="s">
+        <v>644</v>
+      </c>
+      <c r="F96" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>2393</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C97" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D97" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="E97" t="s">
+        <v>645</v>
+      </c>
+      <c r="F97" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>2435</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C98" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D98" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E98" t="s">
+        <v>646</v>
+      </c>
+      <c r="F98" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>2436</v>
       </c>
       <c r="B99" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D99" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E99" t="s">
+        <v>647</v>
+      </c>
+      <c r="F99" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>2472</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C100" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D100" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E100" t="s">
+        <v>648</v>
+      </c>
+      <c r="F100" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>2498</v>
       </c>
       <c r="B101" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D101" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E101" t="s">
+        <v>649</v>
+      </c>
+      <c r="F101" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>2508</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D102" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E102" t="s">
+        <v>650</v>
+      </c>
+      <c r="F102" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>2510</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C103" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D103" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E103" t="s">
+        <v>651</v>
+      </c>
+      <c r="F103" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>2511</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C104" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D104" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E104" t="s">
+        <v>651</v>
+      </c>
+      <c r="F104" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>2519</v>
       </c>
       <c r="B105" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C105" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D105" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E105" t="s">
+        <v>640</v>
+      </c>
+      <c r="F105" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>2545</v>
       </c>
       <c r="B106" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D106" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E106" t="s">
+        <v>652</v>
+      </c>
+      <c r="F106" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>2689</v>
       </c>
       <c r="B107" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C107" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D107" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="E107" t="s">
+        <v>653</v>
+      </c>
+      <c r="F107" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>2708</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C108" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D108" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E108" t="s">
+        <v>584</v>
+      </c>
+      <c r="F108" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>2769</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C109" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D109" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="E109" t="s">
+        <v>644</v>
+      </c>
+      <c r="F109" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>2878</v>
       </c>
       <c r="B110" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C110" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D110" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E110" t="s">
+        <v>654</v>
+      </c>
+      <c r="F110" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>2931</v>
       </c>
       <c r="B111" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C111" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D111" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E111" t="s">
+        <v>655</v>
+      </c>
+      <c r="F111" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>3129</v>
       </c>
       <c r="B112" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C112" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D112" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E112" t="s">
+        <v>656</v>
+      </c>
+      <c r="F112" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>3178</v>
       </c>
       <c r="B113" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C113" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D113" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E113" t="s">
+        <v>657</v>
+      </c>
+      <c r="F113" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>3214</v>
       </c>
       <c r="B114" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D114" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E114" t="s">
+        <v>607</v>
+      </c>
+      <c r="F114" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>3315</v>
       </c>
       <c r="B115" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C115" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D115" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E115" t="s">
+        <v>658</v>
+      </c>
+      <c r="F115" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>3351</v>
       </c>
       <c r="B116" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C116" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D116" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E116" t="s">
+        <v>580</v>
+      </c>
+      <c r="F116" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>3373</v>
       </c>
       <c r="B117" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C117" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D117" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E117" t="s">
+        <v>584</v>
+      </c>
+      <c r="F117" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>3375</v>
       </c>
       <c r="B118" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C118" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D118" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E118" t="s">
+        <v>659</v>
+      </c>
+      <c r="F118" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>3420</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C119" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D119" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E119" t="s">
+        <v>660</v>
+      </c>
+      <c r="F119" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>3468</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C120" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D120" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E120" t="s">
+        <v>661</v>
+      </c>
+      <c r="F120" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>3538</v>
       </c>
       <c r="B121" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C121" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D121" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E121" t="s">
+        <v>662</v>
+      </c>
+      <c r="F121" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>3575</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C122" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D122" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E122" t="s">
+        <v>663</v>
+      </c>
+      <c r="F122" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>3599</v>
       </c>
       <c r="B123" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C123" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D123" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E123" t="s">
+        <v>664</v>
+      </c>
+      <c r="F123" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>3620</v>
       </c>
       <c r="B124" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C124" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D124" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E124" t="s">
+        <v>665</v>
+      </c>
+      <c r="F124" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>3641</v>
       </c>
       <c r="B125" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C125" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D125" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E125" t="s">
+        <v>666</v>
+      </c>
+      <c r="F125" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>3654</v>
       </c>
       <c r="B126" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C126" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D126" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E126" t="s">
+        <v>605</v>
+      </c>
+      <c r="F126" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>3708</v>
       </c>
       <c r="B127" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C127" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D127" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E127" t="s">
+        <v>667</v>
+      </c>
+      <c r="F127" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>3710</v>
       </c>
       <c r="C128" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D128" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E128" t="s">
+        <v>668</v>
+      </c>
+      <c r="F128" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>3738</v>
       </c>
       <c r="B129" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C129" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D129" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E129" t="s">
+        <v>669</v>
+      </c>
+      <c r="F129" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>3743</v>
       </c>
       <c r="B130" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C130" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D130" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E130" t="s">
+        <v>670</v>
+      </c>
+      <c r="F130" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>3774</v>
       </c>
       <c r="B131" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C131" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D131" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E131" t="s">
+        <v>671</v>
+      </c>
+      <c r="F131" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>3839</v>
       </c>
       <c r="B132" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C132" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D132" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E132" t="s">
+        <v>580</v>
+      </c>
+      <c r="F132" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>3856</v>
       </c>
       <c r="B133" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C133" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D133" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E133" t="s">
+        <v>672</v>
+      </c>
+      <c r="F133" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>3942</v>
       </c>
       <c r="B134" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C134" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D134" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E134" t="s">
+        <v>673</v>
+      </c>
+      <c r="F134" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>3967</v>
       </c>
       <c r="B135" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C135" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D135" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E135" t="s">
+        <v>674</v>
+      </c>
+      <c r="F135" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>3981</v>
       </c>
       <c r="B136" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C136" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D136" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E136" t="s">
+        <v>611</v>
+      </c>
+      <c r="F136" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>4002</v>
       </c>
       <c r="B137" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C137" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D137" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E137" t="s">
+        <v>675</v>
+      </c>
+      <c r="F137" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>4006</v>
       </c>
       <c r="B138" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C138" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D138" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E138" t="s">
+        <v>676</v>
+      </c>
+      <c r="F138" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>4013</v>
       </c>
       <c r="B139" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C139" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D139" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E139" t="s">
+        <v>677</v>
+      </c>
+      <c r="F139" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>4019</v>
       </c>
       <c r="B140" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C140" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D140" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E140" t="s">
+        <v>605</v>
+      </c>
+      <c r="F140" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>4042</v>
       </c>
       <c r="B141" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C141" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D141" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E141" t="s">
+        <v>678</v>
+      </c>
+      <c r="F141" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>4086</v>
       </c>
       <c r="B142" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C142" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D142" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E142" t="s">
+        <v>609</v>
+      </c>
+      <c r="F142" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>4102</v>
       </c>
       <c r="B143" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C143" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D143" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E143" t="s">
+        <v>679</v>
+      </c>
+      <c r="F143" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>4127</v>
       </c>
       <c r="B144" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C144" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D144" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E144" t="s">
+        <v>605</v>
+      </c>
+      <c r="F144" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>4164</v>
       </c>
       <c r="B145" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C145" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D145" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E145" t="s">
+        <v>605</v>
+      </c>
+      <c r="F145" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>4207</v>
       </c>
       <c r="B146" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C146" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D146" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E146" t="s">
+        <v>621</v>
+      </c>
+      <c r="F146" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>4220</v>
       </c>
       <c r="B147" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C147" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D147" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E147" t="s">
+        <v>605</v>
+      </c>
+      <c r="F147" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>4269</v>
       </c>
       <c r="B148" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C148" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D148" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E148" t="s">
+        <v>680</v>
+      </c>
+      <c r="F148" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>4287</v>
       </c>
       <c r="B149" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C149" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D149" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E149" t="s">
+        <v>681</v>
+      </c>
+      <c r="F149" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>4317</v>
       </c>
       <c r="B150" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C150" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D150" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E150" t="s">
+        <v>682</v>
+      </c>
+      <c r="F150" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>4355</v>
       </c>
       <c r="B151" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C151" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D151" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E151" t="s">
+        <v>683</v>
+      </c>
+      <c r="F151" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>4365</v>
       </c>
       <c r="B152" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D152" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E152" t="s">
+        <v>605</v>
+      </c>
+      <c r="F152" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>4372</v>
       </c>
       <c r="B153" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C153" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D153" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E153" t="s">
+        <v>684</v>
+      </c>
+      <c r="F153" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>4378</v>
       </c>
       <c r="B154" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C154" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D154" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E154" t="s">
+        <v>685</v>
+      </c>
+      <c r="F154" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>4409</v>
       </c>
       <c r="B155" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C155" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D155" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E155" t="s">
+        <v>686</v>
+      </c>
+      <c r="F155" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>4426</v>
       </c>
       <c r="B156" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C156" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D156" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E156" t="s">
+        <v>605</v>
+      </c>
+      <c r="F156" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>4458</v>
       </c>
       <c r="B157" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C157" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D157" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E157" t="s">
+        <v>687</v>
+      </c>
+      <c r="F157" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>4477</v>
       </c>
       <c r="B158" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C158" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D158" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E158" t="s">
+        <v>688</v>
+      </c>
+      <c r="F158" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>4495</v>
       </c>
       <c r="B159" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C159" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D159" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E159" t="s">
+        <v>605</v>
+      </c>
+      <c r="F159" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>4507</v>
       </c>
       <c r="B160" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C160" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D160" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E160" t="s">
+        <v>689</v>
+      </c>
+      <c r="F160" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>4513</v>
       </c>
       <c r="B161" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C161" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D161" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E161" t="s">
+        <v>690</v>
+      </c>
+      <c r="F161" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>4521</v>
       </c>
       <c r="B162" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C162" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D162" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E162" t="s">
+        <v>691</v>
+      </c>
+      <c r="F162" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>4528</v>
       </c>
       <c r="B163" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C163" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D163" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E163" t="s">
+        <v>692</v>
+      </c>
+      <c r="F163" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>4529</v>
       </c>
       <c r="B164" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C164" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D164" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E164" t="s">
+        <v>692</v>
+      </c>
+      <c r="F164" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>4530</v>
       </c>
       <c r="B165" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C165" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D165" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E165" t="s">
+        <v>692</v>
+      </c>
+      <c r="F165" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>4548</v>
       </c>
       <c r="B166" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C166" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D166" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E166" t="s">
+        <v>605</v>
+      </c>
+      <c r="F166" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>4549</v>
       </c>
       <c r="B167" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C167" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D167" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E167" t="s">
+        <v>693</v>
+      </c>
+      <c r="F167" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>4558</v>
       </c>
       <c r="B168" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C168" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D168" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E168" t="s">
+        <v>694</v>
+      </c>
+      <c r="F168" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>4566</v>
       </c>
       <c r="B169" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C169" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D169" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E169" t="s">
+        <v>605</v>
+      </c>
+      <c r="F169" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>4570</v>
       </c>
       <c r="B170" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C170" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D170" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E170" t="s">
+        <v>605</v>
+      </c>
+      <c r="F170" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>4572</v>
       </c>
       <c r="B171" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C171" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D171" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E171" t="s">
+        <v>605</v>
+      </c>
+      <c r="F171" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>4578</v>
       </c>
       <c r="B172" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C172" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D172" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="E172" t="s">
+        <v>695</v>
+      </c>
+      <c r="F172" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>4586</v>
       </c>
       <c r="B173" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C173" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D173" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E173" t="s">
+        <v>605</v>
+      </c>
+      <c r="F173" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>4588</v>
       </c>
       <c r="B174" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C174" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D174" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E174" t="s">
+        <v>605</v>
+      </c>
+      <c r="F174" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>4598</v>
       </c>
       <c r="B175" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C175" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D175" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E175" t="s">
+        <v>696</v>
+      </c>
+      <c r="F175" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>4612</v>
       </c>
       <c r="B176" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C176" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D176" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E176" t="s">
+        <v>605</v>
+      </c>
+      <c r="F176" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>4618</v>
       </c>
       <c r="B177" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C177" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D177" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E177" t="s">
+        <v>605</v>
+      </c>
+      <c r="F177" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>4632</v>
       </c>
       <c r="B178" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C178" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D178" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E178" t="s">
+        <v>697</v>
+      </c>
+      <c r="F178" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>4635</v>
       </c>
       <c r="B179" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C179" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D179" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E179" t="s">
+        <v>605</v>
+      </c>
+      <c r="F179" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>4669</v>
       </c>
       <c r="B180" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C180" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D180" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E180" t="s">
+        <v>698</v>
+      </c>
+      <c r="F180" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>4694</v>
       </c>
       <c r="B181" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C181" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D181" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="E181" t="s">
+        <v>699</v>
+      </c>
+      <c r="F181" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>4698</v>
       </c>
       <c r="B182" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C182" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D182" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E182" t="s">
+        <v>700</v>
+      </c>
+      <c r="F182" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>4705</v>
       </c>
       <c r="B183" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C183" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D183" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E183" t="s">
+        <v>701</v>
+      </c>
+      <c r="F183" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>4733</v>
       </c>
       <c r="B184" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C184" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D184" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E184" t="s">
+        <v>605</v>
+      </c>
+      <c r="F184" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>4748</v>
       </c>
       <c r="B185" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C185" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D185" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E185" t="s">
+        <v>702</v>
+      </c>
+      <c r="F185" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>4749</v>
       </c>
       <c r="B186" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C186" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D186" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E186" t="s">
+        <v>703</v>
+      </c>
+      <c r="F186" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>4757</v>
       </c>
       <c r="B187" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C187" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D187" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E187" t="s">
+        <v>704</v>
+      </c>
+      <c r="F187" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>4787</v>
       </c>
       <c r="B188" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C188" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D188" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E188" t="s">
+        <v>705</v>
+      </c>
+      <c r="F188" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>4801</v>
       </c>
       <c r="B189" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D189" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E189" t="s">
+        <v>706</v>
+      </c>
+      <c r="F189" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>4802</v>
       </c>
       <c r="B190" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C190" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D190" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E190" t="s">
+        <v>707</v>
+      </c>
+      <c r="F190" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>4806</v>
       </c>
       <c r="B191" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C191" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D191" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E191" t="s">
+        <v>605</v>
+      </c>
+      <c r="F191" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>4808</v>
       </c>
       <c r="B192" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C192" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D192" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E192" t="s">
+        <v>605</v>
+      </c>
+      <c r="F192" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>4814</v>
       </c>
       <c r="B193" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C193" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D193" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E193" t="s">
+        <v>708</v>
+      </c>
+      <c r="F193" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>4815</v>
       </c>
       <c r="B194" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C194" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D194" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E194" t="s">
+        <v>709</v>
+      </c>
+      <c r="F194" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>4841</v>
       </c>
       <c r="B195" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D195" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E195" t="s">
+        <v>607</v>
+      </c>
+      <c r="F195" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>4861</v>
       </c>
       <c r="B196" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C196" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D196" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E196" t="s">
+        <v>710</v>
+      </c>
+      <c r="F196" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>4870</v>
       </c>
       <c r="B197" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C197" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D197" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E197" t="s">
+        <v>605</v>
+      </c>
+      <c r="F197" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>5008</v>
       </c>
       <c r="B198" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C198" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D198" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E198" t="s">
+        <v>711</v>
+      </c>
+      <c r="F198" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>5034</v>
       </c>
       <c r="B199" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C199" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D199" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E199" t="s">
+        <v>683</v>
+      </c>
+      <c r="F199" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>5040</v>
       </c>
       <c r="B200" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C200" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D200" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E200" t="s">
+        <v>712</v>
+      </c>
+      <c r="F200" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>5048</v>
       </c>
       <c r="B201" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C201" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D201" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E201" t="s">
+        <v>605</v>
+      </c>
+      <c r="F201" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>5053</v>
       </c>
       <c r="B202" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C202" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D202" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E202" t="s">
+        <v>713</v>
+      </c>
+      <c r="F202" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>5066</v>
       </c>
       <c r="B203" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C203" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D203" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E203" t="s">
+        <v>714</v>
+      </c>
+      <c r="F203" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>5085</v>
       </c>
       <c r="B204" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C204" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D204" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E204" t="s">
+        <v>605</v>
+      </c>
+      <c r="F204" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>5098</v>
       </c>
       <c r="B205" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C205" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D205" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E205" t="s">
+        <v>701</v>
+      </c>
+      <c r="F205" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>5173</v>
       </c>
       <c r="B206" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C206" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D206" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E206" t="s">
+        <v>715</v>
+      </c>
+      <c r="F206" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>5175</v>
       </c>
       <c r="B207" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C207" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D207" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E207" t="s">
+        <v>716</v>
+      </c>
+      <c r="F207" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>5177</v>
       </c>
       <c r="B208" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C208" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D208" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E208" t="s">
+        <v>631</v>
+      </c>
+      <c r="F208" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="1">
         <v>5211</v>
       </c>
       <c r="B209" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C209" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D209" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E209" t="s">
+        <v>717</v>
+      </c>
+      <c r="F209" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="1">
         <v>5212</v>
       </c>
       <c r="B210" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C210" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D210" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E210" t="s">
+        <v>718</v>
+      </c>
+      <c r="F210" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="1">
         <v>5236</v>
       </c>
       <c r="B211" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C211" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D211" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E211" t="s">
+        <v>605</v>
+      </c>
+      <c r="F211" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="1">
         <v>5248</v>
       </c>
       <c r="B212" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C212" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D212" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E212" t="s">
+        <v>661</v>
+      </c>
+      <c r="F212" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="1">
         <v>5270</v>
       </c>
       <c r="B213" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C213" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D213" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E213" t="s">
+        <v>631</v>
+      </c>
+      <c r="F213" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="1">
         <v>5326</v>
       </c>
       <c r="B214" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C214" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D214" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E214" t="s">
+        <v>719</v>
+      </c>
+      <c r="F214" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="1">
         <v>5334</v>
       </c>
       <c r="B215" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C215" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D215" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E215" t="s">
+        <v>720</v>
+      </c>
+      <c r="F215" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="1">
         <v>5361</v>
       </c>
       <c r="B216" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C216" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D216" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E216" t="s">
+        <v>721</v>
+      </c>
+      <c r="F216" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="1">
         <v>5362</v>
       </c>
       <c r="B217" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C217" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D217" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E217" t="s">
+        <v>607</v>
+      </c>
+      <c r="F217" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="1">
         <v>5389</v>
       </c>
       <c r="B218" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C218" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D218" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E218" t="s">
+        <v>632</v>
+      </c>
+      <c r="F218" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="1">
         <v>5426</v>
       </c>
       <c r="B219" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D219" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E219" t="s">
+        <v>605</v>
+      </c>
+      <c r="F219" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="1">
         <v>5443</v>
       </c>
       <c r="B220" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C220" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D220" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E220" t="s">
+        <v>580</v>
+      </c>
+      <c r="F220" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="1">
         <v>5459</v>
       </c>
       <c r="B221" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C221" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D221" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E221" t="s">
+        <v>722</v>
+      </c>
+      <c r="F221" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
         <v>5462</v>
       </c>
       <c r="B222" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C222" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D222" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E222" t="s">
+        <v>665</v>
+      </c>
+      <c r="F222" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
         <v>5464</v>
       </c>
       <c r="B223" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C223" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D223" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E223" t="s">
+        <v>723</v>
+      </c>
+      <c r="F223" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
         <v>5473</v>
       </c>
       <c r="B224" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C224" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D224" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E224" t="s">
+        <v>580</v>
+      </c>
+      <c r="F224" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>5478</v>
       </c>
       <c r="B225" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C225" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D225" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E225" t="s">
+        <v>724</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="1">
         <v>5479</v>
       </c>
       <c r="B226" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C226" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D226" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E226" t="s">
+        <v>724</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="1">
         <v>5511</v>
       </c>
       <c r="B227" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C227" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D227" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E227" t="s">
+        <v>725</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="1">
         <v>5514</v>
       </c>
       <c r="B228" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C228" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D228" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E228" t="s">
+        <v>726</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="1">
         <v>5515</v>
       </c>
       <c r="B229" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C229" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D229" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E229" t="s">
+        <v>727</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="1">
         <v>5522</v>
       </c>
       <c r="B230" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C230" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D230" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E230" t="s">
+        <v>728</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="1">
         <v>5523</v>
       </c>
       <c r="B231" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C231" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D231" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E231" t="s">
+        <v>729</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="1">
         <v>5524</v>
       </c>
       <c r="B232" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C232" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D232" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E232" t="s">
+        <v>730</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="1">
         <v>5525</v>
       </c>
       <c r="B233" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C233" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D233" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E233" t="s">
+        <v>605</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="1">
         <v>5538</v>
       </c>
       <c r="B234" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C234" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D234" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E234" t="s">
+        <v>731</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="1">
         <v>5557</v>
       </c>
       <c r="B235" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C235" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D235" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E235" t="s">
+        <v>732</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="1">
         <v>5558</v>
       </c>
       <c r="B236" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C236" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D236" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E236" t="s">
+        <v>733</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="1">
         <v>5566</v>
       </c>
       <c r="B237" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C237" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D237" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E237" t="s">
+        <v>734</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="1">
         <v>5570</v>
       </c>
       <c r="B238" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C238" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D238" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E238" t="s">
+        <v>735</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="1">
         <v>5576</v>
       </c>
       <c r="B239" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C239" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D239" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E239" t="s">
+        <v>661</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="1">
         <v>5598</v>
       </c>
       <c r="B240" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C240" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D240" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E240" t="s">
+        <v>736</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <v>5599</v>
       </c>
       <c r="B241" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C241" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D241" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E241" t="s">
+        <v>737</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <v>5600</v>
       </c>
       <c r="B242" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C242" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D242" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E242" t="s">
+        <v>738</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <v>5608</v>
       </c>
       <c r="B243" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C243" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D243" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E243" t="s">
+        <v>682</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <v>5642</v>
       </c>
       <c r="B244" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C244" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D244" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E244" t="s">
+        <v>739</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <v>5645</v>
       </c>
       <c r="B245" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C245" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D245" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E245" t="s">
+        <v>740</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <v>5652</v>
       </c>
       <c r="B246" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C246" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D246" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E246" t="s">
+        <v>741</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <v>5681</v>
       </c>
       <c r="B247" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C247" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D247" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E247" t="s">
+        <v>742</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <v>5687</v>
       </c>
       <c r="B248" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C248" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D248" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E248" t="s">
+        <v>743</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <v>5715</v>
       </c>
       <c r="B249" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C249" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D249" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E249" t="s">
+        <v>744</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <v>5722</v>
       </c>
       <c r="B250" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C250" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D250" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E250" t="s">
+        <v>745</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <v>5725</v>
       </c>
       <c r="B251" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C251" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D251" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E251" t="s">
+        <v>605</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="1">
         <v>5729</v>
       </c>
       <c r="B252" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C252" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D252" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E252" t="s">
+        <v>746</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="1">
         <v>5737</v>
       </c>
       <c r="B253" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C253" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D253" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E253" t="s">
+        <v>605</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="1">
         <v>5742</v>
       </c>
       <c r="B254" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C254" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D254" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E254" t="s">
+        <v>605</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="1">
         <v>5752</v>
       </c>
       <c r="B255" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C255" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D255" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E255" t="s">
+        <v>605</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="1">
         <v>5763</v>
       </c>
       <c r="B256" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C256" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D256" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E256" t="s">
+        <v>605</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="1">
         <v>5784</v>
       </c>
       <c r="B257" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C257" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D257" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E257" t="s">
+        <v>747</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="1">
         <v>5791</v>
       </c>
       <c r="B258" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C258" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D258" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E258" t="s">
+        <v>605</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="1">
         <v>5805</v>
       </c>
       <c r="B259" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C259" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D259" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E259" t="s">
+        <v>605</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="1">
         <v>5809</v>
       </c>
       <c r="B260" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C260" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D260" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E260" t="s">
+        <v>748</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="1">
         <v>5813</v>
       </c>
       <c r="B261" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C261" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D261" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E261" t="s">
+        <v>749</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" s="1">
         <v>5816</v>
       </c>
       <c r="B262" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C262" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D262" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E262" t="s">
+        <v>605</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" s="1">
         <v>5825</v>
       </c>
       <c r="B263" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C263" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D263" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E263" t="s">
+        <v>750</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="1">
         <v>5828</v>
       </c>
       <c r="B264" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C264" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D264" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E264" t="s">
+        <v>605</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" s="1">
         <v>5837</v>
       </c>
       <c r="B265" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C265" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D265" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E265" t="s">
+        <v>605</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="1">
         <v>5848</v>
       </c>
       <c r="B266" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C266" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D266" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E266" t="s">
+        <v>605</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="1">
         <v>5857</v>
       </c>
       <c r="B267" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C267" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D267" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E267" t="s">
+        <v>751</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" s="1">
         <v>5863</v>
       </c>
       <c r="B268" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C268" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D268" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E268" t="s">
+        <v>752</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" s="1">
         <v>5869</v>
       </c>
       <c r="B269" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D269" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E269" t="s">
+        <v>753</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" s="1">
         <v>5875</v>
       </c>
       <c r="B270" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C270" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D270" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E270" t="s">
+        <v>754</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" s="1">
         <v>5876</v>
       </c>
       <c r="B271" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C271" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D271" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E271" t="s">
+        <v>755</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" s="1">
         <v>5888</v>
       </c>
       <c r="B272" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C272" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D272" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E272" t="s">
+        <v>756</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="1">
         <v>5895</v>
       </c>
       <c r="B273" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C273" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D273" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E273" t="s">
+        <v>757</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="1">
         <v>5924</v>
       </c>
       <c r="B274" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C274" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D274" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E274" t="s">
+        <v>605</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="1">
         <v>5938</v>
       </c>
       <c r="B275" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C275" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D275" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E275" t="s">
+        <v>605</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" s="1">
         <v>5953</v>
       </c>
       <c r="B276" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C276" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D276" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E276" t="s">
+        <v>605</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="1">
         <v>5986</v>
       </c>
       <c r="B277" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C277" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D277" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E277" t="s">
+        <v>605</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="1">
         <v>5990</v>
       </c>
       <c r="B278" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C278" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D278" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E278" t="s">
+        <v>758</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="1">
         <v>5992</v>
       </c>
       <c r="B279" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C279" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D279" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E279" t="s">
+        <v>759</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="1">
         <v>6001</v>
       </c>
       <c r="B280" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C280" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D280" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E280" t="s">
+        <v>760</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="1">
         <v>6013</v>
       </c>
       <c r="B281" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C281" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D281" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E281" t="s">
+        <v>761</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="1">
         <v>6014</v>
       </c>
       <c r="B282" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C282" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D282" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+        <v>569</v>
+      </c>
+      <c r="E282" t="s">
+        <v>762</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="1">
         <v>6338</v>
       </c>
       <c r="B283" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C283" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D283" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E283" t="s">
+        <v>605</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="1">
         <v>6349</v>
       </c>
       <c r="B284" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C284" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D284" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E284" t="s">
+        <v>763</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" s="1">
         <v>6530</v>
       </c>
       <c r="B285" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C285" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D285" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E285" t="s">
+        <v>764</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" s="1">
         <v>6621</v>
       </c>
       <c r="B286" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C286" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D286" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E286" t="s">
+        <v>765</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="1">
         <v>6623</v>
       </c>
       <c r="B287" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C287" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D287" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E287" t="s">
+        <v>766</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="1">
         <v>6631</v>
       </c>
       <c r="B288" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C288" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D288" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E288" t="s">
+        <v>767</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <v>6650</v>
       </c>
       <c r="B289" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C289" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D289" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E289" t="s">
+        <v>768</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <v>6681</v>
       </c>
       <c r="B290" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C290" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D290" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E290" t="s">
+        <v>769</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <v>6692</v>
       </c>
       <c r="B291" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C291" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D291" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E291" t="s">
+        <v>605</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <v>6754</v>
       </c>
       <c r="B292" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C292" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D292" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E292" t="s">
+        <v>770</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <v>6755</v>
       </c>
       <c r="B293" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C293" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D293" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E293" t="s">
+        <v>771</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <v>6782</v>
       </c>
       <c r="B294" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C294" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D294" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E294" t="s">
+        <v>772</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <v>6783</v>
       </c>
       <c r="B295" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C295" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D295" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E295" t="s">
+        <v>773</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <v>6829</v>
       </c>
       <c r="B296" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C296" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D296" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E296" t="s">
+        <v>774</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <v>6920</v>
       </c>
       <c r="B297" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C297" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D297" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="E297" t="s">
+        <v>775</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" s="1">
         <v>6930</v>
       </c>
       <c r="B298" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C298" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D298" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E298" t="s">
+        <v>776</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <v>6947</v>
       </c>
       <c r="B299" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C299" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D299" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E299" t="s">
+        <v>777</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <v>6983</v>
       </c>
       <c r="B300" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C300" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D300" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E300" t="s">
+        <v>778</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <v>6984</v>
       </c>
       <c r="B301" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C301" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D301" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="E301" t="s">
+        <v>779</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" s="1">
         <v>7000</v>
       </c>
       <c r="B302" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C302" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D302" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E302" t="s">
+        <v>780</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" s="1">
         <v>7049</v>
       </c>
       <c r="B303" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C303" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D303" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="E303" t="s">
+        <v>699</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" s="1">
         <v>7055</v>
       </c>
       <c r="B304" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C304" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D304" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E304" t="s">
+        <v>760</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" s="1">
         <v>7060</v>
       </c>
       <c r="B305" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C305" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D305" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E305" t="s">
+        <v>644</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" s="1">
         <v>7146</v>
       </c>
       <c r="B306" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C306" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D306" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="E306" t="s">
+        <v>775</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" s="1">
         <v>7160</v>
       </c>
       <c r="B307" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C307" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D307" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E307" t="s">
+        <v>781</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" s="1">
         <v>7162</v>
       </c>
       <c r="B308" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C308" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D308" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E308" t="s">
+        <v>782</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" s="1">
         <v>7225</v>
       </c>
       <c r="B309" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C309" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D309" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E309" t="s">
+        <v>783</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" s="1">
         <v>7247</v>
       </c>
       <c r="B310" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C310" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D310" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="E310" t="s">
+        <v>699</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311" s="1">
         <v>7324</v>
       </c>
       <c r="B311" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C311" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D311" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E311" t="s">
+        <v>784</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" s="1">
         <v>7362</v>
       </c>
       <c r="B312" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C312" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D312" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E312" t="s">
+        <v>785</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" s="1">
         <v>7395</v>
       </c>
       <c r="B313" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C313" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D313" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E313" t="s">
+        <v>786</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" s="1">
         <v>7396</v>
       </c>
       <c r="B314" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D314" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E314" t="s">
+        <v>787</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" s="1">
         <v>7453</v>
       </c>
       <c r="B315" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C315" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D315" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E315" t="s">
+        <v>788</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" s="1">
         <v>7500</v>
       </c>
       <c r="B316" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C316" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D316" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E316" t="s">
+        <v>789</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" s="1">
         <v>7515</v>
       </c>
       <c r="B317" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C317" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D317" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E317" t="s">
+        <v>790</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" s="1">
         <v>7517</v>
       </c>
       <c r="B318" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C318" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D318" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E318" t="s">
+        <v>791</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" s="1">
         <v>7537</v>
       </c>
       <c r="B319" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C319" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D319" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="E319" t="s">
+        <v>661</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320" s="1">
         <v>7543</v>
       </c>
       <c r="B320" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C320" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D320" t="s">
-        <v>864</v>
+        <v>568</v>
+      </c>
+      <c r="E320" t="s">
+        <v>792</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
